--- a/Code/Results/Cases/Case_1_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.50180794732713</v>
+        <v>17.8699785029566</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.640939906417977</v>
+        <v>10.09996978357739</v>
       </c>
       <c r="E2">
-        <v>12.45258434966981</v>
+        <v>16.30835049313773</v>
       </c>
       <c r="F2">
-        <v>23.73143633289984</v>
+        <v>33.64749922674186</v>
       </c>
       <c r="G2">
-        <v>2.068534168278429</v>
+        <v>3.648505521904759</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.527192684648355</v>
+        <v>11.67327852520763</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.649447262644294</v>
+        <v>10.04245560319056</v>
       </c>
       <c r="M2">
-        <v>13.31762196381362</v>
+        <v>16.57342728347234</v>
       </c>
       <c r="N2">
-        <v>14.06781526048773</v>
+        <v>19.80873072543924</v>
       </c>
       <c r="O2">
-        <v>18.44823980671632</v>
+        <v>25.24201608775375</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.61346100138256</v>
+        <v>17.67362667991828</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.626643150513832</v>
+        <v>10.10525268607638</v>
       </c>
       <c r="E3">
-        <v>12.30764942777882</v>
+        <v>16.28214903295978</v>
       </c>
       <c r="F3">
-        <v>23.19425440452119</v>
+        <v>33.68332651649292</v>
       </c>
       <c r="G3">
-        <v>2.074858314135668</v>
+        <v>3.650984364246237</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.44835072167422</v>
+        <v>11.65999430185235</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.054844760277298</v>
+        <v>9.911965854353658</v>
       </c>
       <c r="M3">
-        <v>12.69056904362959</v>
+        <v>16.45813053362408</v>
       </c>
       <c r="N3">
-        <v>14.15293059721129</v>
+        <v>19.85050309037126</v>
       </c>
       <c r="O3">
-        <v>17.92595526355192</v>
+        <v>25.24054338062222</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.04656160614605</v>
+        <v>17.55474892445726</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.618832355071381</v>
+        <v>10.10893835428061</v>
       </c>
       <c r="E4">
-        <v>12.21887689458664</v>
+        <v>16.26657936079419</v>
       </c>
       <c r="F4">
-        <v>22.88149993999872</v>
+        <v>33.71405499980609</v>
       </c>
       <c r="G4">
-        <v>2.078864409719589</v>
+        <v>3.652588706645675</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.400221194992977</v>
+        <v>11.65216418490217</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.669513041709855</v>
+        <v>9.831918344966873</v>
       </c>
       <c r="M4">
-        <v>12.2928344656268</v>
+        <v>16.38891123403293</v>
       </c>
       <c r="N4">
-        <v>14.20969611954325</v>
+        <v>19.87831702346665</v>
       </c>
       <c r="O4">
-        <v>17.61481844210168</v>
+        <v>25.24612494304928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.810384053829</v>
+        <v>17.50677787488584</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.615886200950606</v>
+        <v>10.11055173908945</v>
       </c>
       <c r="E5">
-        <v>12.18277665529853</v>
+        <v>16.26036728846966</v>
       </c>
       <c r="F5">
-        <v>22.75840126124131</v>
+        <v>33.72876829738913</v>
       </c>
       <c r="G5">
-        <v>2.080528678372441</v>
+        <v>3.65326325755458</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.380687253460366</v>
+        <v>11.64905659476449</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.507413459134749</v>
+        <v>9.799349337398858</v>
       </c>
       <c r="M5">
-        <v>12.12775284230057</v>
+        <v>16.36112130947402</v>
       </c>
       <c r="N5">
-        <v>14.2339410946878</v>
+        <v>19.89019687013348</v>
       </c>
       <c r="O5">
-        <v>17.4905499887377</v>
+        <v>25.25002996248794</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77086293593147</v>
+        <v>17.49884228981686</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.615411116845669</v>
+        <v>10.11082638061806</v>
       </c>
       <c r="E6">
-        <v>12.1767873902191</v>
+        <v>16.2593438624727</v>
       </c>
       <c r="F6">
-        <v>22.73822500746947</v>
+        <v>33.73134363110301</v>
       </c>
       <c r="G6">
-        <v>2.080806969677802</v>
+        <v>3.653376522563061</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.377448703702832</v>
+        <v>11.64854564308557</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.48019120457179</v>
+        <v>9.793945308545146</v>
       </c>
       <c r="M6">
-        <v>12.10016626994761</v>
+        <v>16.35653265604983</v>
       </c>
       <c r="N6">
-        <v>14.23803358699084</v>
+        <v>19.89220247963404</v>
       </c>
       <c r="O6">
-        <v>17.47007113259539</v>
+        <v>25.25077683249939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.04339698986403</v>
+        <v>17.55409999194375</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.618791671575436</v>
+        <v>10.10895966128635</v>
       </c>
       <c r="E7">
-        <v>12.21838970199471</v>
+        <v>16.26649504217873</v>
       </c>
       <c r="F7">
-        <v>22.87982210507093</v>
+        <v>33.71424456269201</v>
       </c>
       <c r="G7">
-        <v>2.07888672501846</v>
+        <v>3.65259771969557</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.399957420830274</v>
+        <v>11.65212193627612</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.667347423807412</v>
+        <v>9.831478858519285</v>
       </c>
       <c r="M7">
-        <v>12.29061998622459</v>
+        <v>16.38853473055421</v>
       </c>
       <c r="N7">
-        <v>14.21001861663267</v>
+        <v>19.87847502956037</v>
       </c>
       <c r="O7">
-        <v>17.61313214321884</v>
+        <v>25.24617100710361</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.20008345670328</v>
+        <v>17.80195692414324</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.635805530139938</v>
+        <v>10.10169979129704</v>
       </c>
       <c r="E8">
-        <v>12.40257762737112</v>
+        <v>16.29921014527744</v>
       </c>
       <c r="F8">
-        <v>23.54270982054486</v>
+        <v>33.65803829586375</v>
       </c>
       <c r="G8">
-        <v>2.070689697365942</v>
+        <v>3.649343181261103</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.499955197015172</v>
+        <v>11.66863106767641</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.448636490528303</v>
+        <v>9.997466880474597</v>
       </c>
       <c r="M8">
-        <v>13.10416328088409</v>
+        <v>16.53335971315126</v>
       </c>
       <c r="N8">
-        <v>14.09621566977471</v>
+        <v>19.82268492138283</v>
       </c>
       <c r="O8">
-        <v>18.26624772252746</v>
+        <v>25.24016222095304</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.29013826396546</v>
+        <v>18.29915930166846</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.67716868790358</v>
+        <v>10.0909562411895</v>
       </c>
       <c r="E9">
-        <v>12.76464104698687</v>
+        <v>16.36737004670641</v>
       </c>
       <c r="F9">
-        <v>24.97510481246671</v>
+        <v>33.61723246380292</v>
       </c>
       <c r="G9">
-        <v>2.055552737381656</v>
+        <v>3.643611164810932</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.697893941356302</v>
+        <v>11.70354538728351</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.81991529200042</v>
+        <v>10.32213719911338</v>
       </c>
       <c r="M9">
-        <v>14.59144643040162</v>
+        <v>16.82885875257273</v>
       </c>
       <c r="N9">
-        <v>13.90975581830405</v>
+        <v>19.73042371207206</v>
       </c>
       <c r="O9">
-        <v>19.61748172720317</v>
+        <v>25.27981644803055</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.70900382911069</v>
+        <v>18.6682905735293</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.71293687572921</v>
+        <v>10.08517444156549</v>
       </c>
       <c r="E10">
-        <v>13.03010971956748</v>
+        <v>16.41974810623654</v>
       </c>
       <c r="F10">
-        <v>26.10386701865927</v>
+        <v>33.62970210189143</v>
       </c>
       <c r="G10">
-        <v>2.044945281485088</v>
+        <v>3.639791892213535</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.843969323528828</v>
+        <v>11.73067875305656</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.72969422494054</v>
+        <v>10.5582945153705</v>
       </c>
       <c r="M10">
-        <v>15.61065337491974</v>
+        <v>17.05161919323529</v>
       </c>
       <c r="N10">
-        <v>13.79657657861478</v>
+        <v>19.6730373166148</v>
       </c>
       <c r="O10">
-        <v>20.64657393953998</v>
+        <v>25.34021113920844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.32807491811466</v>
+        <v>18.83642345784168</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.730504577219701</v>
+        <v>10.08299882290138</v>
       </c>
       <c r="E11">
-        <v>13.15056091697162</v>
+        <v>16.44404500175542</v>
       </c>
       <c r="F11">
-        <v>26.63303008131189</v>
+        <v>33.64459766265493</v>
       </c>
       <c r="G11">
-        <v>2.040217435465771</v>
+        <v>3.638138621189799</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.91047292242836</v>
+        <v>11.74332965842626</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.12257500701032</v>
+        <v>10.66482689374492</v>
       </c>
       <c r="M11">
-        <v>16.10538147820235</v>
+        <v>17.1538920401442</v>
       </c>
       <c r="N11">
-        <v>13.75060265371587</v>
+        <v>19.64917748371305</v>
       </c>
       <c r="O11">
-        <v>21.12143163272868</v>
+        <v>25.3744304854352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.55865170095178</v>
+        <v>18.90006980480795</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.73735555345125</v>
+        <v>10.08224001248902</v>
       </c>
       <c r="E12">
-        <v>13.19611301991531</v>
+        <v>16.45331040568731</v>
       </c>
       <c r="F12">
-        <v>26.8355951810221</v>
+        <v>33.65156283916519</v>
       </c>
       <c r="G12">
-        <v>2.038439922209447</v>
+        <v>3.637524599531397</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.935656777620107</v>
+        <v>11.74816317990592</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.268355332084</v>
+        <v>10.70500780837657</v>
       </c>
       <c r="M12">
-        <v>16.30642572194721</v>
+        <v>17.19272979429907</v>
       </c>
       <c r="N12">
-        <v>13.73401713313067</v>
+        <v>19.64046441683709</v>
       </c>
       <c r="O12">
-        <v>21.30213311812452</v>
+        <v>25.38835281752919</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.5091648939327</v>
+        <v>18.8863642277619</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.735871038970796</v>
+        <v>10.0824005478425</v>
       </c>
       <c r="E13">
-        <v>13.18630545620524</v>
+        <v>16.45131210391614</v>
       </c>
       <c r="F13">
-        <v>26.79187312577091</v>
+        <v>33.65000389423034</v>
       </c>
       <c r="G13">
-        <v>2.038822191549495</v>
+        <v>3.637656305756369</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.93023307358227</v>
+        <v>11.74712030860572</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.23709173464225</v>
+        <v>10.69636176444</v>
       </c>
       <c r="M13">
-        <v>16.26331466699666</v>
+        <v>17.18436093909625</v>
       </c>
       <c r="N13">
-        <v>13.73755196397598</v>
+        <v>19.64232661690075</v>
       </c>
       <c r="O13">
-        <v>21.26317766762924</v>
+        <v>25.38531161508752</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.34712206953755</v>
+        <v>18.84166041847383</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.731064159449451</v>
+        <v>10.08293509323827</v>
       </c>
       <c r="E14">
-        <v>13.15430980170335</v>
+        <v>16.44480599208026</v>
       </c>
       <c r="F14">
-        <v>26.64965186785157</v>
+        <v>33.64514416008099</v>
       </c>
       <c r="G14">
-        <v>2.040070948700281</v>
+        <v>3.638087864390578</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.912544844334034</v>
+        <v>11.74372646329009</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.13462832436201</v>
+        <v>10.66813599773738</v>
       </c>
       <c r="M14">
-        <v>16.12200603765471</v>
+        <v>17.15708520315374</v>
       </c>
       <c r="N14">
-        <v>13.74922145661177</v>
+        <v>19.6484542028063</v>
       </c>
       <c r="O14">
-        <v>21.13628076322483</v>
+        <v>25.37555659711882</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.24736313743368</v>
+        <v>18.81427364389125</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.728146035140504</v>
+        <v>10.08327097968093</v>
       </c>
       <c r="E15">
-        <v>13.13470328685032</v>
+        <v>16.4408291502695</v>
       </c>
       <c r="F15">
-        <v>26.56281950878406</v>
+        <v>33.6423398566279</v>
       </c>
       <c r="G15">
-        <v>2.040837480603058</v>
+        <v>3.638353772140759</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.901710141583425</v>
+        <v>11.74165318081453</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.07147721621809</v>
+        <v>10.65082506605877</v>
       </c>
       <c r="M15">
-        <v>16.03490077693037</v>
+        <v>17.14039149244845</v>
       </c>
       <c r="N15">
-        <v>13.75647760284796</v>
+        <v>19.65224945468733</v>
       </c>
       <c r="O15">
-        <v>21.05866560678354</v>
+        <v>25.36970674404557</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.66800975056677</v>
+        <v>18.65730246900812</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.711815870727021</v>
+        <v>10.08532574322597</v>
       </c>
       <c r="E16">
-        <v>13.02223032069182</v>
+        <v>16.41816945758958</v>
       </c>
       <c r="F16">
-        <v>26.06959409241481</v>
+        <v>33.62891411470329</v>
       </c>
       <c r="G16">
-        <v>2.045256118996242</v>
+        <v>3.639901625038101</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.839623588412241</v>
+        <v>11.72985806435515</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.70359810404215</v>
+        <v>10.55131160223703</v>
       </c>
       <c r="M16">
-        <v>15.58111872980877</v>
+        <v>17.04495210751932</v>
       </c>
       <c r="N16">
-        <v>13.79969461715184</v>
+        <v>19.67464173261773</v>
       </c>
       <c r="O16">
-        <v>20.61566857494499</v>
+        <v>25.3381100927222</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.30579022072708</v>
+        <v>18.56102265905037</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.702138038336297</v>
+        <v>10.08670247210745</v>
       </c>
       <c r="E17">
-        <v>12.95314040747555</v>
+        <v>16.40438678571344</v>
       </c>
       <c r="F17">
-        <v>25.77097811946076</v>
+        <v>33.62303926921568</v>
       </c>
       <c r="G17">
-        <v>2.047990962322029</v>
+        <v>3.640872687196105</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.80154370949233</v>
+        <v>11.72270001479278</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.47255629433235</v>
+        <v>10.49001081758735</v>
       </c>
       <c r="M17">
-        <v>15.32036663675423</v>
+        <v>16.98662517031603</v>
       </c>
       <c r="N17">
-        <v>13.82764014557609</v>
+        <v>19.68895325371729</v>
       </c>
       <c r="O17">
-        <v>20.34556051503005</v>
+        <v>25.32045050255566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.09497032368802</v>
+        <v>18.50566822623436</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.696692844723382</v>
+        <v>10.08753713360774</v>
       </c>
       <c r="E18">
-        <v>12.9133731655435</v>
+        <v>16.39650375685456</v>
       </c>
       <c r="F18">
-        <v>25.60070213478353</v>
+        <v>33.6205285106485</v>
       </c>
       <c r="G18">
-        <v>2.049573230090937</v>
+        <v>3.64143913936916</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.779646565830086</v>
+        <v>11.71861194868669</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.33769055973915</v>
+        <v>10.45466965298221</v>
       </c>
       <c r="M18">
-        <v>15.16878571481504</v>
+        <v>16.95316689063242</v>
       </c>
       <c r="N18">
-        <v>13.84423048950759</v>
+        <v>19.69739626738398</v>
       </c>
       <c r="O18">
-        <v>20.19083782319212</v>
+        <v>25.31092851095949</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.02316640452207</v>
+        <v>18.48693176206499</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.694869675435792</v>
+        <v>10.08782709673446</v>
       </c>
       <c r="E19">
-        <v>12.89990425627585</v>
+        <v>16.39384241096317</v>
       </c>
       <c r="F19">
-        <v>25.5433061988757</v>
+        <v>33.61982757422619</v>
       </c>
       <c r="G19">
-        <v>2.050110584177492</v>
+        <v>3.641632293015598</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.772233729785851</v>
+        <v>11.71723283108565</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.29168726410361</v>
+        <v>10.44269053943915</v>
       </c>
       <c r="M19">
-        <v>15.11719006782989</v>
+        <v>16.94185470049202</v>
       </c>
       <c r="N19">
-        <v>13.84993554054529</v>
+        <v>19.70029125934208</v>
       </c>
       <c r="O19">
-        <v>20.13856347930832</v>
+        <v>25.30781380559018</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.34460635748834</v>
+        <v>18.57126979520246</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.703155629740867</v>
+        <v>10.08655148925741</v>
       </c>
       <c r="E20">
-        <v>12.96049821899628</v>
+        <v>16.40584940012028</v>
       </c>
       <c r="F20">
-        <v>25.80261368489865</v>
+        <v>33.62357479957163</v>
       </c>
       <c r="G20">
-        <v>2.047698883842127</v>
+        <v>3.640768496434146</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.80559687429384</v>
+        <v>11.72345900414802</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.49735551493166</v>
+        <v>10.49654516918142</v>
       </c>
       <c r="M20">
-        <v>15.34829062620305</v>
+        <v>16.99282506053729</v>
       </c>
       <c r="N20">
-        <v>13.82461158838426</v>
+        <v>19.68740789379817</v>
       </c>
       <c r="O20">
-        <v>20.37424877945072</v>
+        <v>25.32226467925475</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.394822879947</v>
+        <v>18.85479202047622</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.732470566988313</v>
+        <v>10.08277632139961</v>
       </c>
       <c r="E21">
-        <v>13.16370944518736</v>
+        <v>16.44671526206567</v>
       </c>
       <c r="F21">
-        <v>26.69136698723344</v>
+        <v>33.64653565354926</v>
       </c>
       <c r="G21">
-        <v>2.039703820613645</v>
+        <v>3.637960778993812</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.917740349418704</v>
+        <v>11.74472216465642</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.1648053974352</v>
+        <v>10.67643119494214</v>
       </c>
       <c r="M21">
-        <v>16.16362626335097</v>
+        <v>17.16509398767059</v>
       </c>
       <c r="N21">
-        <v>13.74577122702225</v>
+        <v>19.64664564578007</v>
       </c>
       <c r="O21">
-        <v>21.17353006216268</v>
+        <v>25.37839576581235</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.05873499568289</v>
+        <v>19.03993868822059</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.752793076207622</v>
+        <v>10.08068804003358</v>
       </c>
       <c r="E22">
-        <v>13.29616356559563</v>
+        <v>16.47379920564995</v>
       </c>
       <c r="F22">
-        <v>27.28491552177901</v>
+        <v>33.66926074133595</v>
       </c>
       <c r="G22">
-        <v>2.034552677924493</v>
+        <v>3.636195900910964</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.991032078786604</v>
+        <v>11.75886826487912</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.58357838707074</v>
+        <v>10.79304715911242</v>
       </c>
       <c r="M22">
-        <v>16.74097996158797</v>
+        <v>17.27830654864444</v>
       </c>
       <c r="N22">
-        <v>13.69906222635121</v>
+        <v>19.62188244968735</v>
       </c>
       <c r="O22">
-        <v>21.70102926355762</v>
+        <v>25.42069733028641</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.70646217255023</v>
+        <v>18.94115341075419</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.741835744645513</v>
+        <v>10.08176802013761</v>
       </c>
       <c r="E23">
-        <v>13.22550740006418</v>
+        <v>16.45931057421564</v>
       </c>
       <c r="F23">
-        <v>26.96698654647236</v>
+        <v>33.65642654015493</v>
       </c>
       <c r="G23">
-        <v>2.037295583391179</v>
+        <v>3.637131453358482</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.951917132308376</v>
+        <v>11.75129586124606</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.36165894166495</v>
+        <v>10.73090412992331</v>
       </c>
       <c r="M23">
-        <v>16.43507358598798</v>
+        <v>17.21783418046154</v>
       </c>
       <c r="N23">
-        <v>13.72354003008155</v>
+        <v>19.63492751464148</v>
       </c>
       <c r="O23">
-        <v>21.41904690164356</v>
+        <v>25.39760847176684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.32706559810896</v>
+        <v>18.56663706676667</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.702695207766436</v>
+        <v>10.08661961415918</v>
       </c>
       <c r="E24">
-        <v>12.95717189615002</v>
+        <v>16.40518802482791</v>
       </c>
       <c r="F24">
-        <v>25.7883068721677</v>
+        <v>33.62332998620943</v>
       </c>
       <c r="G24">
-        <v>2.047830901378667</v>
+        <v>3.640815575606484</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.803764451985172</v>
+        <v>11.72311578026623</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.4861501328464</v>
+        <v>10.49359129328546</v>
       </c>
       <c r="M24">
-        <v>15.33567139015016</v>
+        <v>16.99002185564999</v>
       </c>
       <c r="N24">
-        <v>13.8259791690127</v>
+        <v>19.68810588083548</v>
       </c>
       <c r="O24">
-        <v>20.36127704551927</v>
+        <v>25.32144252477723</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.74476169989255</v>
+        <v>18.16376456175705</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.665073830818018</v>
+        <v>10.09349055217529</v>
       </c>
       <c r="E25">
-        <v>12.6667146888386</v>
+        <v>16.34851649820656</v>
       </c>
       <c r="F25">
-        <v>24.57386208683536</v>
+        <v>33.62082206283629</v>
       </c>
       <c r="G25">
-        <v>2.059553074439011</v>
+        <v>3.645092672455578</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.644199242212501</v>
+        <v>11.69383500309114</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.46615727250317</v>
+        <v>10.23458950068058</v>
       </c>
       <c r="M25">
-        <v>14.20154987604594</v>
+        <v>16.74782548030715</v>
       </c>
       <c r="N25">
-        <v>13.9561264247867</v>
+        <v>19.75355302929979</v>
       </c>
       <c r="O25">
-        <v>19.24510591323444</v>
+        <v>25.26358775562582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.8699785029566</v>
+        <v>16.50180794732712</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.09996978357739</v>
+        <v>6.640939906417907</v>
       </c>
       <c r="E2">
-        <v>16.30835049313773</v>
+        <v>12.45258434966993</v>
       </c>
       <c r="F2">
-        <v>33.64749922674186</v>
+        <v>23.73143633289979</v>
       </c>
       <c r="G2">
-        <v>3.648505521904759</v>
+        <v>2.068534168278298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.67327852520763</v>
+        <v>8.527192684648419</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.04245560319056</v>
+        <v>9.64944726264426</v>
       </c>
       <c r="M2">
-        <v>16.57342728347234</v>
+        <v>13.31762196381363</v>
       </c>
       <c r="N2">
-        <v>19.80873072543924</v>
+        <v>14.06781526048774</v>
       </c>
       <c r="O2">
-        <v>25.24201608775375</v>
+        <v>18.44823980671629</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.67362667991828</v>
+        <v>15.61346100138256</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.10525268607638</v>
+        <v>6.626643150513701</v>
       </c>
       <c r="E3">
-        <v>16.28214903295978</v>
+        <v>12.30764942777856</v>
       </c>
       <c r="F3">
-        <v>33.68332651649292</v>
+        <v>23.19425440452113</v>
       </c>
       <c r="G3">
-        <v>3.650984364246237</v>
+        <v>2.074858314135535</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.65999430185235</v>
+        <v>8.448350721674059</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.911965854353658</v>
+        <v>9.054844760277328</v>
       </c>
       <c r="M3">
-        <v>16.45813053362408</v>
+        <v>12.69056904362956</v>
       </c>
       <c r="N3">
-        <v>19.85050309037126</v>
+        <v>14.15293059721123</v>
       </c>
       <c r="O3">
-        <v>25.24054338062222</v>
+        <v>17.92595526355191</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.55474892445726</v>
+        <v>15.04656160614608</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.10893835428061</v>
+        <v>6.61883235507144</v>
       </c>
       <c r="E4">
-        <v>16.26657936079419</v>
+        <v>12.21887689458663</v>
       </c>
       <c r="F4">
-        <v>33.71405499980609</v>
+        <v>22.88149993999878</v>
       </c>
       <c r="G4">
-        <v>3.652588706645675</v>
+        <v>2.078864409719454</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.65216418490217</v>
+        <v>8.400221194992936</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.831918344966873</v>
+        <v>8.669513041709864</v>
       </c>
       <c r="M4">
-        <v>16.38891123403293</v>
+        <v>12.29283446562683</v>
       </c>
       <c r="N4">
-        <v>19.87831702346665</v>
+        <v>14.20969611954324</v>
       </c>
       <c r="O4">
-        <v>25.24612494304928</v>
+        <v>17.61481844210173</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.50677787488584</v>
+        <v>14.81038405382899</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.11055173908945</v>
+        <v>6.61588620095067</v>
       </c>
       <c r="E5">
-        <v>16.26036728846966</v>
+        <v>12.18277665529859</v>
       </c>
       <c r="F5">
-        <v>33.72876829738913</v>
+        <v>22.75840126124134</v>
       </c>
       <c r="G5">
-        <v>3.65326325755458</v>
+        <v>2.080528678372443</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.64905659476449</v>
+        <v>8.380687253460399</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.799349337398858</v>
+        <v>8.507413459134755</v>
       </c>
       <c r="M5">
-        <v>16.36112130947402</v>
+        <v>12.12775284230057</v>
       </c>
       <c r="N5">
-        <v>19.89019687013348</v>
+        <v>14.2339410946879</v>
       </c>
       <c r="O5">
-        <v>25.25002996248794</v>
+        <v>17.4905499887377</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.49884228981686</v>
+        <v>14.7708629359314</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.11082638061806</v>
+        <v>6.615411116845532</v>
       </c>
       <c r="E6">
-        <v>16.2593438624727</v>
+        <v>12.17678739021904</v>
       </c>
       <c r="F6">
-        <v>33.73134363110301</v>
+        <v>22.73822500746932</v>
       </c>
       <c r="G6">
-        <v>3.653376522563061</v>
+        <v>2.080806969677802</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.64854564308557</v>
+        <v>8.377448703702804</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.793945308545146</v>
+        <v>8.480191204571801</v>
       </c>
       <c r="M6">
-        <v>16.35653265604983</v>
+        <v>12.10016626994757</v>
       </c>
       <c r="N6">
-        <v>19.89220247963404</v>
+        <v>14.23803358699081</v>
       </c>
       <c r="O6">
-        <v>25.25077683249939</v>
+        <v>17.47007113259532</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.55409999194375</v>
+        <v>15.04339698986401</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.10895966128635</v>
+        <v>6.618791671575372</v>
       </c>
       <c r="E7">
-        <v>16.26649504217873</v>
+        <v>12.21838970199478</v>
       </c>
       <c r="F7">
-        <v>33.71424456269201</v>
+        <v>22.87982210507099</v>
       </c>
       <c r="G7">
-        <v>3.65259771969557</v>
+        <v>2.078886725018594</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.65212193627612</v>
+        <v>8.39995742083031</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.831478858519285</v>
+        <v>8.667347423807362</v>
       </c>
       <c r="M7">
-        <v>16.38853473055421</v>
+        <v>12.29061998622461</v>
       </c>
       <c r="N7">
-        <v>19.87847502956037</v>
+        <v>14.21001861663267</v>
       </c>
       <c r="O7">
-        <v>25.24617100710361</v>
+        <v>17.61313214321886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.80195692414324</v>
+        <v>16.2000834567033</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.10169979129704</v>
+        <v>6.635805530140007</v>
       </c>
       <c r="E8">
-        <v>16.29921014527744</v>
+        <v>12.40257762737111</v>
       </c>
       <c r="F8">
-        <v>33.65803829586375</v>
+        <v>23.54270982054484</v>
       </c>
       <c r="G8">
-        <v>3.649343181261103</v>
+        <v>2.070689697365947</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.66863106767641</v>
+        <v>8.499955197015142</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.997466880474597</v>
+        <v>9.448636490528315</v>
       </c>
       <c r="M8">
-        <v>16.53335971315126</v>
+        <v>13.10416328088409</v>
       </c>
       <c r="N8">
-        <v>19.82268492138283</v>
+        <v>14.09621566977468</v>
       </c>
       <c r="O8">
-        <v>25.24016222095304</v>
+        <v>18.26624772252745</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.29915930166846</v>
+        <v>18.29013826396546</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.0909562411895</v>
+        <v>6.677168687903576</v>
       </c>
       <c r="E9">
-        <v>16.36737004670641</v>
+        <v>12.76464104698692</v>
       </c>
       <c r="F9">
-        <v>33.61723246380292</v>
+        <v>24.97510481246666</v>
       </c>
       <c r="G9">
-        <v>3.643611164810932</v>
+        <v>2.055552737381522</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.70354538728351</v>
+        <v>8.697893941356359</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.32213719911338</v>
+        <v>10.81991529200042</v>
       </c>
       <c r="M9">
-        <v>16.82885875257273</v>
+        <v>14.59144643040162</v>
       </c>
       <c r="N9">
-        <v>19.73042371207206</v>
+        <v>13.90975581830405</v>
       </c>
       <c r="O9">
-        <v>25.27981644803055</v>
+        <v>19.61748172720315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.6682905735293</v>
+        <v>19.70900382911068</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.08517444156549</v>
+        <v>6.712936875729139</v>
       </c>
       <c r="E10">
-        <v>16.41974810623654</v>
+        <v>13.03010971956747</v>
       </c>
       <c r="F10">
-        <v>33.62970210189143</v>
+        <v>26.10386701865924</v>
       </c>
       <c r="G10">
-        <v>3.639791892213535</v>
+        <v>2.044945281485088</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.73067875305656</v>
+        <v>8.843969323528796</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.5582945153705</v>
+        <v>11.72969422494056</v>
       </c>
       <c r="M10">
-        <v>17.05161919323529</v>
+        <v>15.61065337491973</v>
       </c>
       <c r="N10">
-        <v>19.6730373166148</v>
+        <v>13.79657657861474</v>
       </c>
       <c r="O10">
-        <v>25.34021113920844</v>
+        <v>20.64657393953996</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.83642345784168</v>
+        <v>20.32807491811466</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.08299882290138</v>
+        <v>6.730504577219626</v>
       </c>
       <c r="E11">
-        <v>16.44404500175542</v>
+        <v>13.15056091697167</v>
       </c>
       <c r="F11">
-        <v>33.64459766265493</v>
+        <v>26.63303008131187</v>
       </c>
       <c r="G11">
-        <v>3.638138621189799</v>
+        <v>2.040217435465772</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.74332965842626</v>
+        <v>8.91047292242836</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.66482689374492</v>
+        <v>12.12257500701038</v>
       </c>
       <c r="M11">
-        <v>17.1538920401442</v>
+        <v>16.1053814782024</v>
       </c>
       <c r="N11">
-        <v>19.64917748371305</v>
+        <v>13.75060265371589</v>
       </c>
       <c r="O11">
-        <v>25.3744304854352</v>
+        <v>21.12143163272867</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.90006980480795</v>
+        <v>20.55865170095177</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.08224001248902</v>
+        <v>6.737355553451309</v>
       </c>
       <c r="E12">
-        <v>16.45331040568731</v>
+        <v>13.19611301991537</v>
       </c>
       <c r="F12">
-        <v>33.65156283916519</v>
+        <v>26.83559518102212</v>
       </c>
       <c r="G12">
-        <v>3.637524599531397</v>
+        <v>2.038439922209582</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.74816317990592</v>
+        <v>8.935656777620142</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.70500780837657</v>
+        <v>12.26835533208392</v>
       </c>
       <c r="M12">
-        <v>17.19272979429907</v>
+        <v>16.30642572194717</v>
       </c>
       <c r="N12">
-        <v>19.64046441683709</v>
+        <v>13.73401713313061</v>
       </c>
       <c r="O12">
-        <v>25.38835281752919</v>
+        <v>21.30213311812452</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.8863642277619</v>
+        <v>20.5091648939327</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.0824005478425</v>
+        <v>6.735871038970667</v>
       </c>
       <c r="E13">
-        <v>16.45131210391614</v>
+        <v>13.18630545620518</v>
       </c>
       <c r="F13">
-        <v>33.65000389423034</v>
+        <v>26.79187312577083</v>
       </c>
       <c r="G13">
-        <v>3.637656305756369</v>
+        <v>2.038822191549495</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.74712030860572</v>
+        <v>8.930233073582269</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.69636176444</v>
+        <v>12.23709173464227</v>
       </c>
       <c r="M13">
-        <v>17.18436093909625</v>
+        <v>16.26331466699666</v>
       </c>
       <c r="N13">
-        <v>19.64232661690075</v>
+        <v>13.73755196397592</v>
       </c>
       <c r="O13">
-        <v>25.38531161508752</v>
+        <v>21.26317766762921</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.84166041847383</v>
+        <v>20.34712206953754</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.08293509323827</v>
+        <v>6.731064159449453</v>
       </c>
       <c r="E14">
-        <v>16.44480599208026</v>
+        <v>13.15430980170335</v>
       </c>
       <c r="F14">
-        <v>33.64514416008099</v>
+        <v>26.64965186785155</v>
       </c>
       <c r="G14">
-        <v>3.638087864390578</v>
+        <v>2.040070948700278</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.74372646329009</v>
+        <v>8.912544844334008</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.66813599773738</v>
+        <v>12.13462832436203</v>
       </c>
       <c r="M14">
-        <v>17.15708520315374</v>
+        <v>16.1220060376547</v>
       </c>
       <c r="N14">
-        <v>19.6484542028063</v>
+        <v>13.74922145661177</v>
       </c>
       <c r="O14">
-        <v>25.37555659711882</v>
+        <v>21.13628076322481</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.81427364389125</v>
+        <v>20.24736313743368</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.08327097968093</v>
+        <v>6.728146035140504</v>
       </c>
       <c r="E15">
-        <v>16.4408291502695</v>
+        <v>13.13470328685014</v>
       </c>
       <c r="F15">
-        <v>33.6423398566279</v>
+        <v>26.5628195087841</v>
       </c>
       <c r="G15">
-        <v>3.638353772140759</v>
+        <v>2.040837480603193</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.74165318081453</v>
+        <v>8.901710141583303</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.65082506605877</v>
+        <v>12.07147721621808</v>
       </c>
       <c r="M15">
-        <v>17.14039149244845</v>
+        <v>16.03490077693037</v>
       </c>
       <c r="N15">
-        <v>19.65224945468733</v>
+        <v>13.7564776028479</v>
       </c>
       <c r="O15">
-        <v>25.36970674404557</v>
+        <v>21.05866560678358</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.65730246900812</v>
+        <v>19.66800975056676</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.08532574322597</v>
+        <v>6.711815870726888</v>
       </c>
       <c r="E16">
-        <v>16.41816945758958</v>
+        <v>13.02223032069177</v>
       </c>
       <c r="F16">
-        <v>33.62891411470329</v>
+        <v>26.06959409241482</v>
       </c>
       <c r="G16">
-        <v>3.639901625038101</v>
+        <v>2.045256118996106</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.72985806435515</v>
+        <v>8.839623588412215</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.55131160223703</v>
+        <v>11.70359810404217</v>
       </c>
       <c r="M16">
-        <v>17.04495210751932</v>
+        <v>15.58111872980875</v>
       </c>
       <c r="N16">
-        <v>19.67464173261773</v>
+        <v>13.79969461715189</v>
       </c>
       <c r="O16">
-        <v>25.3381100927222</v>
+        <v>20.61566857494502</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.56102265905037</v>
+        <v>19.30579022072708</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.08670247210745</v>
+        <v>6.702138038336368</v>
       </c>
       <c r="E17">
-        <v>16.40438678571344</v>
+        <v>12.95314040747544</v>
       </c>
       <c r="F17">
-        <v>33.62303926921568</v>
+        <v>25.77097811946086</v>
       </c>
       <c r="G17">
-        <v>3.640872687196105</v>
+        <v>2.047990962322027</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.72270001479278</v>
+        <v>8.801543709492176</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.49001081758735</v>
+        <v>11.47255629433235</v>
       </c>
       <c r="M17">
-        <v>16.98662517031603</v>
+        <v>15.32036663675424</v>
       </c>
       <c r="N17">
-        <v>19.68895325371729</v>
+        <v>13.82764014557609</v>
       </c>
       <c r="O17">
-        <v>25.32045050255566</v>
+        <v>20.3455605150301</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.50566822623436</v>
+        <v>19.09497032368803</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.08753713360774</v>
+        <v>6.696692844723377</v>
       </c>
       <c r="E18">
-        <v>16.39650375685456</v>
+        <v>12.91337316554361</v>
       </c>
       <c r="F18">
-        <v>33.6205285106485</v>
+        <v>25.60070213478355</v>
       </c>
       <c r="G18">
-        <v>3.64143913936916</v>
+        <v>2.049573230090801</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.71861194868669</v>
+        <v>8.779646565830175</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.45466965298221</v>
+        <v>11.33769055973917</v>
       </c>
       <c r="M18">
-        <v>16.95316689063242</v>
+        <v>15.16878571481507</v>
       </c>
       <c r="N18">
-        <v>19.69739626738398</v>
+        <v>13.84423048950765</v>
       </c>
       <c r="O18">
-        <v>25.31092851095949</v>
+        <v>20.19083782319213</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.48693176206499</v>
+        <v>19.02316640452205</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.08782709673446</v>
+        <v>6.694869675435856</v>
       </c>
       <c r="E19">
-        <v>16.39384241096317</v>
+        <v>12.89990425627598</v>
       </c>
       <c r="F19">
-        <v>33.61982757422619</v>
+        <v>25.54330619887564</v>
       </c>
       <c r="G19">
-        <v>3.641632293015598</v>
+        <v>2.050110584177759</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.71723283108565</v>
+        <v>8.772233729786008</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.44269053943915</v>
+        <v>11.29168726410365</v>
       </c>
       <c r="M19">
-        <v>16.94185470049202</v>
+        <v>15.11719006782988</v>
       </c>
       <c r="N19">
-        <v>19.70029125934208</v>
+        <v>13.84993554054529</v>
       </c>
       <c r="O19">
-        <v>25.30781380559018</v>
+        <v>20.13856347930827</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.57126979520246</v>
+        <v>19.34460635748833</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.08655148925741</v>
+        <v>6.703155629740933</v>
       </c>
       <c r="E20">
-        <v>16.40584940012028</v>
+        <v>12.96049821899628</v>
       </c>
       <c r="F20">
-        <v>33.62357479957163</v>
+        <v>25.80261368489863</v>
       </c>
       <c r="G20">
-        <v>3.640768496434146</v>
+        <v>2.047698883842263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.72345900414802</v>
+        <v>8.80559687429384</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.49654516918142</v>
+        <v>11.49735551493166</v>
       </c>
       <c r="M20">
-        <v>16.99282506053729</v>
+        <v>15.34829062620307</v>
       </c>
       <c r="N20">
-        <v>19.68740789379817</v>
+        <v>13.82461158838424</v>
       </c>
       <c r="O20">
-        <v>25.32226467925475</v>
+        <v>20.37424877945071</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.85479202047622</v>
+        <v>20.39482287994698</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.08277632139961</v>
+        <v>6.732470566988439</v>
       </c>
       <c r="E21">
-        <v>16.44671526206567</v>
+        <v>13.16370944518735</v>
       </c>
       <c r="F21">
-        <v>33.64653565354926</v>
+        <v>26.69136698723348</v>
       </c>
       <c r="G21">
-        <v>3.637960778993812</v>
+        <v>2.039703820613648</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.74472216465642</v>
+        <v>8.917740349418638</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.67643119494214</v>
+        <v>12.16480539743521</v>
       </c>
       <c r="M21">
-        <v>17.16509398767059</v>
+        <v>16.16362626335098</v>
       </c>
       <c r="N21">
-        <v>19.64664564578007</v>
+        <v>13.74577122702221</v>
       </c>
       <c r="O21">
-        <v>25.37839576581235</v>
+        <v>21.17353006216268</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.03993868822059</v>
+        <v>21.05873499568291</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.08068804003358</v>
+        <v>6.752793076207494</v>
       </c>
       <c r="E22">
-        <v>16.47379920564995</v>
+        <v>13.29616356559551</v>
       </c>
       <c r="F22">
-        <v>33.66926074133595</v>
+        <v>27.28491552177901</v>
       </c>
       <c r="G22">
-        <v>3.636195900910964</v>
+        <v>2.034552677924494</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.75886826487912</v>
+        <v>8.991032078786573</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.79304715911242</v>
+        <v>12.58357838707075</v>
       </c>
       <c r="M22">
-        <v>17.27830654864444</v>
+        <v>16.74097996158799</v>
       </c>
       <c r="N22">
-        <v>19.62188244968735</v>
+        <v>13.69906222635121</v>
       </c>
       <c r="O22">
-        <v>25.42069733028641</v>
+        <v>21.70102926355763</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.94115341075419</v>
+        <v>20.70646217255026</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.08176802013761</v>
+        <v>6.741835744645508</v>
       </c>
       <c r="E23">
-        <v>16.45931057421564</v>
+        <v>13.22550740006411</v>
       </c>
       <c r="F23">
-        <v>33.65642654015493</v>
+        <v>26.96698654647243</v>
       </c>
       <c r="G23">
-        <v>3.637131453358482</v>
+        <v>2.037295583391181</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.75129586124606</v>
+        <v>8.951917132308308</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.73090412992331</v>
+        <v>12.36165894166497</v>
       </c>
       <c r="M23">
-        <v>17.21783418046154</v>
+        <v>16.43507358598799</v>
       </c>
       <c r="N23">
-        <v>19.63492751464148</v>
+        <v>13.72354003008154</v>
       </c>
       <c r="O23">
-        <v>25.39760847176684</v>
+        <v>21.41904690164361</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.56663706676667</v>
+        <v>19.32706559810897</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.08661961415918</v>
+        <v>6.702695207766432</v>
       </c>
       <c r="E24">
-        <v>16.40518802482791</v>
+        <v>12.95717189615013</v>
       </c>
       <c r="F24">
-        <v>33.62332998620943</v>
+        <v>25.78830687216777</v>
       </c>
       <c r="G24">
-        <v>3.640815575606484</v>
+        <v>2.047830901378664</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.72311578026623</v>
+        <v>8.803764451985261</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.49359129328546</v>
+        <v>11.48615013284634</v>
       </c>
       <c r="M24">
-        <v>16.99002185564999</v>
+        <v>15.33567139015018</v>
       </c>
       <c r="N24">
-        <v>19.68810588083548</v>
+        <v>13.82597916901272</v>
       </c>
       <c r="O24">
-        <v>25.32144252477723</v>
+        <v>20.36127704551931</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.16376456175705</v>
+        <v>17.74476169989256</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.09349055217529</v>
+        <v>6.66507383081801</v>
       </c>
       <c r="E25">
-        <v>16.34851649820656</v>
+        <v>12.66671468883859</v>
       </c>
       <c r="F25">
-        <v>33.62082206283629</v>
+        <v>24.5738620868354</v>
       </c>
       <c r="G25">
-        <v>3.645092672455578</v>
+        <v>2.059553074439145</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.69383500309114</v>
+        <v>8.644199242212492</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.23458950068058</v>
+        <v>10.46615727250316</v>
       </c>
       <c r="M25">
-        <v>16.74782548030715</v>
+        <v>14.20154987604594</v>
       </c>
       <c r="N25">
-        <v>19.75355302929979</v>
+        <v>13.95612642478676</v>
       </c>
       <c r="O25">
-        <v>25.26358775562582</v>
+        <v>19.24510591323446</v>
       </c>
     </row>
   </sheetData>
